--- a/resources/mockExam/题库模版.xlsx
+++ b/resources/mockExam/题库模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14300"/>
+    <workbookView windowHeight="14300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="考试信息" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>科目名称</t>
   </si>
@@ -52,6 +52,9 @@
     <t>答案</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>解析</t>
   </si>
   <si>
@@ -79,6 +82,30 @@
     <t>选项H</t>
   </si>
   <si>
+    <t>女子运动取消</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>中国夺冠</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>对的</t>
+  </si>
+  <si>
+    <t>错的</t>
+  </si>
+  <si>
     <t>完整的计算机系统由（）组成。</t>
   </si>
   <si>
@@ -160,9 +187,6 @@
     <t>下列设备中，属于输出设备的是（）。</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>下列设备中，属于输出设备的是显示器。</t>
   </si>
   <si>
@@ -176,6 +200,24 @@
   </si>
   <si>
     <t>手字板</t>
+  </si>
+  <si>
+    <t>下列设备哪些是输入设备</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>键盘</t>
+  </si>
+  <si>
+    <t>鼠标</t>
+  </si>
+  <si>
+    <t>显示器</t>
+  </si>
+  <si>
+    <t>写字板</t>
   </si>
 </sst>
 </file>
@@ -1139,14 +1181,13 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="3" max="8" width="12.5714285714286" customWidth="1"/>
+    <col min="1" max="8" width="16.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1210,15 +1251,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="48.6428571428571" customWidth="1"/>
+    <col min="2" max="2" width="8.64285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16.6428571428571" customWidth="1"/>
+    <col min="4" max="12" width="16.6428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1252,8 +1299,44 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C5:C6">
+      <formula1>"A,B,C,D,E,F,G,H"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1262,23 +1345,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="48.8035714285714" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="19.0714285714286" customWidth="1"/>
-    <col min="5" max="5" width="29.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="33.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="27.0714285714286" customWidth="1"/>
+    <col min="1" max="1" width="48.6428571428571" customWidth="1"/>
+    <col min="2" max="2" width="8.64285714285714" customWidth="1"/>
+    <col min="3" max="12" width="16.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1312,125 +1392,128 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 B5:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 B5:B6 C2:C4 C5:C6">
       <formula1>"A,B,C,D,E,F,G,H"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1442,15 +1525,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="48.6428571428571" customWidth="1"/>
+    <col min="2" max="2" width="8.64285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16.6428571428571" customWidth="1"/>
+    <col min="4" max="12" width="16.6428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1484,8 +1573,36 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C5:C6">
+      <formula1>"A,B,C,D,E,F,G,H"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/resources/mockExam/题库模版.xlsx
+++ b/resources/mockExam/题库模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14300" activeTab="3"/>
+    <workbookView windowHeight="14300"/>
   </bookViews>
   <sheets>
     <sheet name="考试信息" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>科目名称</t>
   </si>
@@ -106,118 +106,295 @@
     <t>错的</t>
   </si>
   <si>
-    <t>完整的计算机系统由（）组成。</t>
+    <t>选项I</t>
+  </si>
+  <si>
+    <t>选项J</t>
+  </si>
+  <si>
+    <t>选项K</t>
+  </si>
+  <si>
+    <t>网络安全是在分布网络环境中对()</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>信息载体提供安全保护</t>
+  </si>
+  <si>
+    <t>信息的处理、传输提供安全保护</t>
+  </si>
+  <si>
+    <t>信息的存储、访问提供安全保护</t>
+  </si>
+  <si>
+    <t>上面3项都是</t>
+  </si>
+  <si>
+    <t>VPN的加密手段是()</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>完整的计算机系统由硬件系统和软件系统组成。</t>
-  </si>
-  <si>
-    <t>运算器、控制器、存储器、输入设备和输出设备</t>
-  </si>
-  <si>
-    <t>主机和外部设备</t>
-  </si>
-  <si>
-    <t>硬件系统和软件系统</t>
-  </si>
-  <si>
-    <t>主机箱、显示器、键盘、鼠标、打印机</t>
-  </si>
-  <si>
-    <t>以下软件中，（）不是操作系统软件。</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>microsoft office不是操作系统软件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows xp         </t>
-  </si>
-  <si>
-    <t>unix         </t>
-  </si>
-  <si>
-    <t>linux    　　</t>
-  </si>
-  <si>
-    <t>microsoft office</t>
-  </si>
-  <si>
-    <t>用一个字节最多能编出（  ）不同的码。</t>
-  </si>
-  <si>
-    <t>用一个字节最多能编出256不同的码。</t>
-  </si>
-  <si>
-    <t>8个</t>
-  </si>
-  <si>
-    <t>16个</t>
-  </si>
-  <si>
-    <t>128个</t>
-  </si>
-  <si>
-    <t>256个</t>
-  </si>
-  <si>
-    <t>任何程序都必须加载到（  ）中才能被CPU执行。</t>
-  </si>
-  <si>
-    <t>任何程序都必须加载到内存中才能被CPU执行。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">磁盘               </t>
-  </si>
-  <si>
-    <t>硬盘            </t>
-  </si>
-  <si>
-    <t>内存            </t>
-  </si>
-  <si>
-    <t>外存</t>
-  </si>
-  <si>
-    <t>下列设备中，属于输出设备的是（）。</t>
-  </si>
-  <si>
-    <t>下列设备中，属于输出设备的是显示器。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">显示器　　　       </t>
-  </si>
-  <si>
-    <t>键盘　　　    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">鼠标　　    　 </t>
-  </si>
-  <si>
-    <t>手字板</t>
-  </si>
-  <si>
-    <t>下列设备哪些是输入设备</t>
-  </si>
-  <si>
-    <t>ABD</t>
-  </si>
-  <si>
-    <t>键盘</t>
-  </si>
-  <si>
-    <t>鼠标</t>
-  </si>
-  <si>
-    <t>显示器</t>
-  </si>
-  <si>
-    <t>写字板</t>
+    <t>具有加密功能的防火墙</t>
+  </si>
+  <si>
+    <t>带有加密功能的路由器</t>
+  </si>
+  <si>
+    <t>VPN内的各台主机对各自的信息进行相应的加密</t>
+  </si>
+  <si>
+    <t>单独的加密设备</t>
+  </si>
+  <si>
+    <t>通常所说的移动VPN是指()</t>
+  </si>
+  <si>
+    <t>Access VPN</t>
+  </si>
+  <si>
+    <t>Intranel VPN</t>
+  </si>
+  <si>
+    <t>Extranet VPN</t>
+  </si>
+  <si>
+    <t>以上都不是</t>
+  </si>
+  <si>
+    <t>入侵检测系统的检测分析技术主要有两大类，它们是()</t>
+  </si>
+  <si>
+    <t>特征检测和模型检测</t>
+  </si>
+  <si>
+    <t>异常检测和误用检测</t>
+  </si>
+  <si>
+    <t>异常检测和概率检测</t>
+  </si>
+  <si>
+    <t>主机检测和网络检测</t>
+  </si>
+  <si>
+    <t>身份鉴别是安全服务中的重要一环，以下关于身份鉴别的叙述不正确的是()</t>
+  </si>
+  <si>
+    <t>身份鉴别是授权控制的基础</t>
+  </si>
+  <si>
+    <t>身份鉴别一般不用提供双向认证</t>
+  </si>
+  <si>
+    <t>目前一跟般采用基于对称密钥或公开密钥加密的方法</t>
+  </si>
+  <si>
+    <t>数据签名机制是实现身份鉴别的重要机制</t>
+  </si>
+  <si>
+    <t>如下代码
+public class Test {
+public int aMethod() {
+static int i = 0;
+i++;
+return i;
+}
+public static void main (String args[]) {
+Test test = new Test();
+test.aMethod();
+int j = test.aMethod();
+System.out.println(j);
+}
+}
+输出结果是什么？()</t>
+  </si>
+  <si>
+    <t>static用来修饰全局变量，不能修饰局部变量</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>编译失败</t>
+  </si>
+  <si>
+    <t>如下代码：
+class Super {
+publicIntegergetLenght() { return new Integer(4); }
+}
+public class Sub extends Super {
+publicLonggetLenght() { return new Long(5); }
+public static void main(String[] args) {
+Super sooper = new Super();
+Sub sub = new Sub();
+System.out.println(sooper.getLenght().toString() + “,” +
+sub.getLenght().toString() );
+}
+}
+输出是什么 ()</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>方法重写不能改变返回值类型</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>编译失败.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类Test1定义如下：
+public class Test1{
+public float aMethod（float a，float b）{ return 0;}
+}
+将以下哪种方法插入行3 是不合法的。 () </t>
+  </si>
+  <si>
+    <t>public float aMethod （ float a ， float b ， float c ） {
+return 0;
+}</t>
+  </si>
+  <si>
+    <t>public float aMethod（float c，float d）{
+return 0;
+}</t>
+  </si>
+  <si>
+    <t>public int aMethod （ int a ， int b ） {
+return 0;
+}</t>
+  </si>
+  <si>
+    <t>private float aMethod （ int a ， int b ， int c ） {
+return 0;
+}</t>
+  </si>
+  <si>
+    <t>公共信息网络安全监察工作的一般原则()</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>预防与打击相结合的原则</t>
+  </si>
+  <si>
+    <t>专门机关监管与社会力量相结合的原则</t>
+  </si>
+  <si>
+    <t>纠正与制裁相结合的原则</t>
+  </si>
+  <si>
+    <t>教育和处罚相结合的原则</t>
+  </si>
+  <si>
+    <t>网络操作系统应当提供哪些安全保障()</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>验证(Authentication)</t>
+  </si>
+  <si>
+    <t>授权(Authorization)</t>
+  </si>
+  <si>
+    <t>数据保密性(Data Confidentiality)</t>
+  </si>
+  <si>
+    <t>数据一致性(Data Integrity)</t>
+  </si>
+  <si>
+    <t>数据的不可否认性(Data Nonrepudiation)</t>
+  </si>
+  <si>
+    <t>计算机案件包括以下几个内容()</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>违反国家法律的行为</t>
+  </si>
+  <si>
+    <t>违反国家法规的行为</t>
+  </si>
+  <si>
+    <t>危及、危害计算机信息系统安全的事件</t>
+  </si>
+  <si>
+    <t>计算机硬件常见机械故障</t>
+  </si>
+  <si>
+    <t>重大计算机安全事故和计算机违法案件可由_____受理()</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>案发地市级公安机关公共信息网络安全监察部门</t>
+  </si>
+  <si>
+    <t>案发地当地县级(区、市)公安机关治安部门</t>
+  </si>
+  <si>
+    <t>案发地当地县级(区、市)公安机关公共信息网络安全监察部门</t>
+  </si>
+  <si>
+    <t>案发地当地公安派出所</t>
+  </si>
+  <si>
+    <t>有害数据通过在信息网络中的运行,主要产生的危害有()</t>
+  </si>
+  <si>
+    <t>攻击国家政权,危害国家安全</t>
+  </si>
+  <si>
+    <t>破坏社会治安秩序</t>
+  </si>
+  <si>
+    <t>破坏计算机信息系统,造成经济的社会的巨大损失</t>
+  </si>
+  <si>
+    <t>计算机病毒按传染方式分为____()</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>良性病毒</t>
+  </si>
+  <si>
+    <t>引导型病毒</t>
+  </si>
+  <si>
+    <t>文件型病毒</t>
+  </si>
+  <si>
+    <t>复合型病毒</t>
   </si>
 </sst>
 </file>
@@ -225,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -239,8 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,6 +425,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,14 +454,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +475,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -292,33 +544,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,75 +573,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,19 +583,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,31 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,127 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +780,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,17 +857,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -647,203 +880,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -851,12 +1034,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1181,8 +1362,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1230,13 +1411,13 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1254,15 +1435,14 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="48.6428571428571" customWidth="1"/>
     <col min="2" max="2" width="8.64285714285714" customWidth="1"/>
-    <col min="3" max="3" width="16.6428571428571" customWidth="1"/>
-    <col min="4" max="12" width="16.6428571428571" customWidth="1"/>
+    <col min="3" max="12" width="16.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1345,178 +1525,305 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="48.6428571428571" customWidth="1"/>
     <col min="2" max="2" width="8.64285714285714" customWidth="1"/>
     <col min="3" max="12" width="16.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 B5:B6 C2:C4 C5:C6">
-      <formula1>"A,B,C,D,E,F,G,H"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1525,84 +1832,241 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="48.6428571428571" customWidth="1"/>
     <col min="2" max="2" width="8.64285714285714" customWidth="1"/>
-    <col min="3" max="3" width="16.6428571428571" customWidth="1"/>
-    <col min="4" max="12" width="16.6428571428571" customWidth="1"/>
+    <col min="3" max="12" width="16.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C5:C6">
-      <formula1>"A,B,C,D,E,F,G,H"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/resources/mockExam/题库模版.xlsx
+++ b/resources/mockExam/题库模版.xlsx
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>科目名称</t>
   </si>
   <si>
     <t>分数线</t>
+  </si>
+  <si>
+    <t>考试时长</t>
   </si>
   <si>
     <t>判断题个数</t>
@@ -1030,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,6 +1041,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1360,25 +1366,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="8" width="16.6428571428571" customWidth="1"/>
+    <col min="1" max="9" width="16.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1396,30 +1402,36 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>80</v>
       </c>
-      <c r="C2">
-        <v>10</v>
+      <c r="C2" s="3">
+        <v>90</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
     </row>
@@ -1447,68 +1459,68 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1540,71 +1552,71 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1616,24 +1628,24 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1645,24 +1657,24 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1674,24 +1686,24 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1703,24 +1715,24 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1732,26 +1744,26 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1763,29 +1775,29 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1796,24 +1808,24 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1835,7 +1847,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1847,71 +1859,71 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1923,27 +1935,27 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1954,24 +1966,24 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1983,24 +1995,24 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2012,21 +2024,21 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2039,24 +2051,24 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
